--- a/IB2019-2020/07-Exponential-functions/Covid-modeling-stats.xlsx
+++ b/IB2019-2020/07-Exponential-functions/Covid-modeling-stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chris/GitHub/course-files/IB2019-2020/07-Exponential-functions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{54DC23CF-50CE-FB49-921F-9ABCCC948BEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{60BD0CDA-42AE-DA44-B216-AC5AA0F64D55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="1860" windowWidth="24440" windowHeight="17440"/>
+    <workbookView xWindow="1320" yWindow="1780" windowWidth="24440" windowHeight="17440"/>
   </bookViews>
   <sheets>
     <sheet name="Age cohorts" sheetId="1" r:id="rId1"/>
@@ -661,7 +661,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
@@ -676,6 +676,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="45">
@@ -1035,13 +1036,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S15"/>
+  <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F23" sqref="F23"/>
+      <selection pane="bottomRight" activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1477,7 +1478,7 @@
       <c r="B9" s="9"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="G10" s="12">
+      <c r="G10" s="13">
         <f>B3*S3</f>
         <v>0</v>
       </c>
@@ -1486,33 +1487,78 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="G11" s="12">
+      <c r="G11" s="13">
         <f t="shared" ref="G11:G15" si="11">B4*S4</f>
         <v>2826.613018181818</v>
       </c>
+      <c r="J11" s="13">
+        <f t="shared" ref="J11:J14" si="12">G11*J$17/B$8</f>
+        <v>100094.9628206901</v>
+      </c>
+      <c r="N11" s="12">
+        <f>J$17*C3*S3</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="G12" s="12">
+      <c r="G12" s="13">
         <f t="shared" si="11"/>
         <v>16116.809485000002</v>
       </c>
+      <c r="J12" s="13">
+        <f t="shared" si="12"/>
+        <v>570722.42850805866</v>
+      </c>
+      <c r="N12" s="12">
+        <f t="shared" ref="N12:N15" si="13">J$17*C4*S4</f>
+        <v>100094.9628206901</v>
+      </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="G13" s="12">
-        <f t="shared" si="11"/>
+      <c r="G13" s="13">
+        <f>B6*S6</f>
         <v>18074.53844318182</v>
       </c>
+      <c r="J13" s="13">
+        <f t="shared" si="12"/>
+        <v>640048.79402810615</v>
+      </c>
+      <c r="N13" s="12">
+        <f t="shared" si="13"/>
+        <v>570722.42850805866</v>
+      </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="G14" s="12">
+      <c r="G14" s="13">
         <f t="shared" si="11"/>
         <v>35807.557285454539</v>
       </c>
+      <c r="J14" s="13">
+        <f t="shared" si="12"/>
+        <v>1268003.8237044434</v>
+      </c>
+      <c r="N14" s="12">
+        <f t="shared" si="13"/>
+        <v>640048.79402810626</v>
+      </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="G15" s="12">
-        <f t="shared" si="11"/>
+      <c r="G15" s="13">
+        <f>B8*S8</f>
         <v>72241.297927272724</v>
+      </c>
+      <c r="J15" s="13">
+        <f>G15*J$17/B$8</f>
+        <v>2558181.8181818179</v>
+      </c>
+      <c r="N15" s="12">
+        <f t="shared" si="13"/>
+        <v>1268003.8237044434</v>
+      </c>
+    </row>
+    <row r="17" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J17" s="10">
+        <v>300000000</v>
       </c>
     </row>
   </sheetData>
